--- a/TestData/TMTI0056868_VerifyStatusIsUpdatedInOracleERPInformationSectionForFVARecordTypes.xlsx
+++ b/TestData/TMTI0056868_VerifyStatusIsUpdatedInOracleERPInformationSectionForFVARecordTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25833FC-D9E6-43F1-ADCF-97CA46E2B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E10FA0-4043-4D93-8277-4633087D0558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>Client</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -600,6 +603,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +659,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -651,6 +669,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -973,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1200,95 @@
         <v>68</v>
       </c>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1227,7 +1335,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TMTI0056868_VerifyStatusIsUpdatedInOracleERPInformationSectionForFVARecordTypes.xlsx
+++ b/TestData/TMTI0056868_VerifyStatusIsUpdatedInOracleERPInformationSectionForFVARecordTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E10FA0-4043-4D93-8277-4633087D0558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5D617-D6A4-4BEC-8125-D39DB1628246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1875" yWindow="1125" windowWidth="21600" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Client</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1292,95 @@
         <v>68</v>
       </c>
     </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
